--- a/contents/save/대화창_fix3 - 복사본.xlsx
+++ b/contents/save/대화창_fix3 - 복사본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D931DEB-C2EE-4274-B561-2C3EA217FF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22EFD52-CDFE-49AF-8733-38A3E03AB0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
+    <workbookView xWindow="150" yWindow="1710" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="117">
   <si>
     <t>대사</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,42 +384,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명월: "이제 저런 요괴 따위는 쉽게 퇴마 하는군요."</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아랑: "너무 띄워주지 마시지요. 당신에 비해 아직 부족한 몸입니다."</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명월: "겸손하시기는. 슬슬 해가 지고 있으니 이번 임무에 대해서 설명드리겠습니다."</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명월: "얼마 전 일어난 전쟁을 통해 왜의 요괴들이 조선의 땅에 넘어왔습니다."</t>
-  </si>
-  <si>
-    <t>아랑: "왜의 요괴말입니까?"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아랑: "알겠습니다."</t>
-  </si>
-  <si>
     <t>스테이지 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명월: "예. 이번 임무는 민가를 약탈하는 왜의 요괴 '오니'와 그의 부하들을 모두 
-사살하는 것으로 지역의 산성 또는 마을에 있을 것으로 추정되고 있습니다."</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명월: "저는 산성으로 먼저 가 동태를 살피고 있을 터이니 
-아랑님께서는 민가를 확인해 주십시오"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 돌입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -440,30 +408,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아랑:"마을이 너무 조용해"</t>
-  </si>
-  <si>
-    <t>명월: "착요갑사의 기술 연(蓮)을 자유롭게 사용하는 모습까지… 
-대주께서 자랑스러워 하실 겁니다."</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 불: "아무래도 이미 떠난 것 같은데? 이곳 저곳 부숴져있어."</t>
-  </si>
-  <si>
-    <t>아랑: "…일단 마을을 둘러보자"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비불</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도깨비불_일반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#S5. 양반집 안</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -485,10 +434,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>출력 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Tuto_OJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,6 +483,183 @@
   </si>
   <si>
     <t>"…"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1S_Boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1S_Start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐구</t>
+  </si>
+  <si>
+    <t>아랑_일반</t>
+  </si>
+  <si>
+    <t>텐구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도께비불</t>
+  </si>
+  <si>
+    <t>도께비불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐구_일반</t>
+  </si>
+  <si>
+    <t>텐구_일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도께비불_일반</t>
+  </si>
+  <si>
+    <t>도께비불_일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이제 저런 요괴 따위는 쉽게 퇴마 하는군요."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"착요갑사의 기술 연(蓮)을 자유롭게 사용하는 모습까지… 
+대주께서 자랑스러워 하실 겁니다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너무 띄워주지 마시지요. 당신에 비해 아직 부족한 몸입니다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"겸손하시기는. 슬슬 해가 지고 있으니 이번 임무에 대해서 설명드리겠습니다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"얼마 전 일어난 전쟁을 통해 왜의 요괴들이 조선의 땅에 넘어왔습니다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜의 요괴말입니까?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알겠습니다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"마을이 너무 조용해"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아무래도 이미 떠난 것 같은데? 이곳 저곳 부숴져있어."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…일단 마을을 둘러보자"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"누군가 있어."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 음? 아직도 마을에 인간이 남아 있었나? "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아랑! 요기가 느껴져 저 놈 인간이 아니야!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"요괴라고? 오니는 아닌것 같은데… 이봐 오니가 어디있는지 알고있나? ."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 퇴마사였나. 대장은 이곳에 없다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"심심하던차에 잘됐군. 날 이기면 알려주지. 한번 덤벼보게나"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐구: "이 내가 이런곳에서 패배하다니..."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐구 : "하하… 승부에 대한 답은 말해주지. 오니 대장은 서쪽의 산성에 있다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐구 : "이 마을을 공격한 후 성을 점령하기 위해 떠났거든."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#S5. 양반집 입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#S6. 양반집 안뜰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"예. 이번 임무는 민가를 약탈중인 왜의 요괴 '오니'와 그의 부하들을 모두 
+사살하는 것으로 이 지역의 마을 또는 서쪽 산성에 있을 것으로 추정하고 있습니다."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저는 산성으로 가 동태를 살피고 있을 터이니 아랑께서는 민가를 확인해 주십시오"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랑: "산성? 명월님이 계신 곳이잖아? 서둘러야겠어."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1보스 클리어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#S7. 성채 입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아랑 저기봐! 무언가 있어!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"요괴의 시체야. 검흔이 있는걸 봐선 명월님은 이미 진입하신것같네."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"서두르자"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시네마틱 연출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +771,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -696,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,43 +864,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFCA023-BD26-4C4D-A72F-F8BB63D3B95D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F17" activeCellId="1" sqref="F14 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1415,569 +1561,807 @@
     <col min="2" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="74.25" customWidth="1"/>
+    <col min="6" max="6" width="77.625" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33">
+      <c r="A5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33">
-      <c r="A5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33">
-      <c r="A8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>66</v>
+      <c r="A10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>66</v>
+      <c r="A11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>66</v>
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>66</v>
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>66</v>
+      <c r="A14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33">
+      <c r="A16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33">
+      <c r="A21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33">
-      <c r="A16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="33">
-      <c r="A21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="10" t="s">
+      <c r="F38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="19"/>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
